--- a/00.기획서/221020_Sound 요청 리스트_V100.xlsx
+++ b/00.기획서/221020_Sound 요청 리스트_V100.xlsx
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>항목</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -275,6 +275,41 @@
   </si>
   <si>
     <t>SOUND 요청 리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저작권 표시여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티 유료 에셋 파일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래 내용 향후 크레딧에 복붙해야함
+Song : Hexacube - Blue Sky Comes To You 
+Follow Artist : https://bit.ly/36y5u1o
+Music promoted by DayDreamSound : https://youtu.be/QO6NSqBFLOY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s0_VPS.wav</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -365,7 +400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -425,13 +460,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,16 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -471,8 +506,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,11 +813,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L10"/>
+  <dimension ref="B2:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -767,37 +824,43 @@
     <col min="6" max="6" width="42" customWidth="1"/>
     <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -810,23 +873,29 @@
       <c r="E4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -839,23 +908,29 @@
       <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -865,24 +940,32 @@
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="M6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -895,75 +978,87 @@
       <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
       <c r="L7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="M7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="8">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
       <c r="L8" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="M8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.기획서/221020_Sound 요청 리스트_V100.xlsx
+++ b/00.기획서/221020_Sound 요청 리스트_V100.xlsx
@@ -242,18 +242,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>main.wav</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ingame.wav</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>walking.wav</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">뚀로로롱 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -309,7 +297,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>s0_VPS.wav</t>
+    <t>BGM_main.wav</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM_s0VPS.wav</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM_ingame.wav</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM_walking.wav</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -500,6 +500,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -514,24 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,7 +820,7 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
     <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
@@ -829,36 +829,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -873,26 +873,26 @@
       <c r="E4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
@@ -906,28 +906,28 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="82.5" x14ac:dyDescent="0.3">
@@ -941,28 +941,28 @@
         <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
       <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -976,28 +976,28 @@
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -1011,33 +1011,33 @@
         <v>25</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="M8" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -1048,17 +1048,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="B2:N3"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
